--- a/NeuralNetwork/SKLearn/Compare.xlsx
+++ b/NeuralNetwork/SKLearn/Compare.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ibvc1\Documents\_STEVEN\Uni\MinorProject\NeuralNetwork\SKLearn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F7E730D-715B-42ED-A434-3F2744C5F31C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{031A4844-53D6-45F8-B217-055250025F0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6AB32F16-D7CC-488A-92D7-8B96A981075A}"/>
   </bookViews>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="13">
-  <si>
-    <t>Neural Network Finetuning</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="14">
   <si>
     <t>Data</t>
   </si>
@@ -74,15 +71,29 @@
     <t>selfies (inpu_dim=161)</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>SKLEARN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neural Network Finetuning </t>
+  </si>
+  <si>
+    <t>TENSORFLOW</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -249,7 +260,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -265,6 +276,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" textRotation="180"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -273,18 +293,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="180"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -599,10 +611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C708194A-08C4-4E44-AE6F-7BDE7A91FFF1}">
-  <dimension ref="A3:P32"/>
+  <dimension ref="A2:AC32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="AA6" sqref="AA6:AC27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -618,32 +630,58 @@
     <col min="14" max="14" width="7.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B3" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q3" s="19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
       <c r="K4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L4" t="s">
+        <v>4</v>
+      </c>
+      <c r="M4" t="s">
         <v>5</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>6</v>
       </c>
-      <c r="N4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
       <c r="C5" s="3">
         <v>1</v>
@@ -673,13 +711,42 @@
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
-    </row>
-    <row r="6" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="15">
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="16" t="s">
-        <v>10</v>
+      <c r="S5" s="3">
+        <v>2</v>
+      </c>
+      <c r="T5" s="3">
+        <v>3</v>
+      </c>
+      <c r="U5" s="3">
+        <v>4</v>
+      </c>
+      <c r="V5" s="3">
+        <v>5</v>
+      </c>
+      <c r="W5" s="3">
+        <v>6</v>
+      </c>
+      <c r="X5" s="3">
+        <v>7</v>
+      </c>
+      <c r="Y5" s="3">
+        <v>8</v>
+      </c>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="3"/>
+    </row>
+    <row r="6" spans="1:29" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="12">
+        <v>1</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="C6" s="6">
         <v>50</v>
@@ -713,31 +780,63 @@
       <c r="N6" s="11">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="15"/>
-      <c r="B7" s="17"/>
+      <c r="P6" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="R6" s="6">
+        <v>50</v>
+      </c>
+      <c r="S6" s="7">
+        <v>100</v>
+      </c>
+      <c r="T6" s="7">
+        <v>150</v>
+      </c>
+      <c r="U6" s="7">
+        <v>100</v>
+      </c>
+      <c r="V6" s="7">
+        <v>50</v>
+      </c>
+      <c r="W6" s="7">
+        <v>3</v>
+      </c>
+      <c r="X6" s="9"/>
+      <c r="Y6" s="9"/>
+      <c r="Z6" s="18">
+        <v>20</v>
+      </c>
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="11"/>
+      <c r="AC6" s="11"/>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A7" s="12"/>
+      <c r="B7" s="14"/>
       <c r="C7" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
-      <c r="K7" s="14"/>
+      <c r="K7" s="17"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4">
         <v>0.26102455877554998</v>
@@ -746,12 +845,38 @@
         <v>0.26131017390415501</v>
       </c>
       <c r="O7" s="8"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="15">
-        <v>2</v>
-      </c>
-      <c r="B8" s="17"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="W7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="17"/>
+      <c r="AA7" s="4"/>
+      <c r="AB7" s="4"/>
+      <c r="AC7" s="4"/>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A8" s="12">
+        <v>2</v>
+      </c>
+      <c r="B8" s="14"/>
       <c r="C8" s="8">
         <v>50</v>
       </c>
@@ -773,7 +898,7 @@
       <c r="I8">
         <v>3</v>
       </c>
-      <c r="K8" s="13">
+      <c r="K8" s="16">
         <v>20</v>
       </c>
       <c r="L8" s="11">
@@ -785,33 +910,64 @@
       <c r="N8" s="11">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="15"/>
-      <c r="B9" s="17"/>
+      <c r="P8" s="12">
+        <v>2</v>
+      </c>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="8">
+        <v>50</v>
+      </c>
+      <c r="S8">
+        <v>100</v>
+      </c>
+      <c r="T8">
+        <v>150</v>
+      </c>
+      <c r="U8">
+        <v>200</v>
+      </c>
+      <c r="V8">
+        <v>150</v>
+      </c>
+      <c r="W8">
+        <v>100</v>
+      </c>
+      <c r="X8">
+        <v>3</v>
+      </c>
+      <c r="Z8" s="16">
+        <v>100</v>
+      </c>
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="11"/>
+      <c r="AC8" s="11"/>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A9" s="12"/>
+      <c r="B9" s="14"/>
       <c r="C9" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J9" s="2"/>
-      <c r="K9" s="14"/>
+      <c r="K9" s="17"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4">
         <v>0.28187779840174698</v>
@@ -819,12 +975,40 @@
       <c r="N9" s="10">
         <v>0.28148663943548802</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="15">
-        <v>3</v>
-      </c>
-      <c r="B10" s="17"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="U9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="V9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="W9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="X9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="17"/>
+      <c r="AA9" s="4"/>
+      <c r="AB9" s="4"/>
+      <c r="AC9" s="10"/>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A10" s="12">
+        <v>3</v>
+      </c>
+      <c r="B10" s="14"/>
       <c r="C10" s="8">
         <v>50</v>
       </c>
@@ -846,7 +1030,7 @@
       <c r="I10">
         <v>3</v>
       </c>
-      <c r="K10" s="13">
+      <c r="K10" s="16">
         <v>20</v>
       </c>
       <c r="L10" s="11">
@@ -858,33 +1042,64 @@
       <c r="N10" s="11">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="15"/>
-      <c r="B11" s="17"/>
+      <c r="P10" s="12">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="8">
+        <v>50</v>
+      </c>
+      <c r="S10">
+        <v>100</v>
+      </c>
+      <c r="T10">
+        <v>150</v>
+      </c>
+      <c r="U10">
+        <v>200</v>
+      </c>
+      <c r="V10">
+        <v>150</v>
+      </c>
+      <c r="W10">
+        <v>100</v>
+      </c>
+      <c r="X10">
+        <v>3</v>
+      </c>
+      <c r="Z10" s="16">
+        <v>20</v>
+      </c>
+      <c r="AA10" s="11"/>
+      <c r="AB10" s="11"/>
+      <c r="AC10" s="11"/>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A11" s="12"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J11" s="2"/>
-      <c r="K11" s="14"/>
+      <c r="K11" s="17"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4">
         <v>0.24093191701004699</v>
@@ -892,12 +1107,40 @@
       <c r="N11" s="10">
         <v>0.24111245735769701</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="15">
+      <c r="P11" s="12"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="W11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="X11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="17"/>
+      <c r="AA11" s="4"/>
+      <c r="AB11" s="4"/>
+      <c r="AC11" s="10"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A12" s="12">
         <v>4</v>
       </c>
-      <c r="B12" s="17"/>
+      <c r="B12" s="14"/>
       <c r="C12" s="8">
         <v>50</v>
       </c>
@@ -919,7 +1162,7 @@
       <c r="I12">
         <v>3</v>
       </c>
-      <c r="K12" s="13">
+      <c r="K12" s="16">
         <v>20</v>
       </c>
       <c r="L12" s="11">
@@ -931,33 +1174,64 @@
       <c r="N12" s="11">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="15"/>
-      <c r="B13" s="17"/>
+      <c r="P12" s="12">
+        <v>4</v>
+      </c>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="8">
+        <v>50</v>
+      </c>
+      <c r="S12">
+        <v>100</v>
+      </c>
+      <c r="T12">
+        <v>150</v>
+      </c>
+      <c r="U12">
+        <v>200</v>
+      </c>
+      <c r="V12">
+        <v>150</v>
+      </c>
+      <c r="W12">
+        <v>100</v>
+      </c>
+      <c r="X12">
+        <v>3</v>
+      </c>
+      <c r="Z12" s="16">
+        <v>20</v>
+      </c>
+      <c r="AA12" s="11"/>
+      <c r="AB12" s="11"/>
+      <c r="AC12" s="11"/>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A13" s="12"/>
+      <c r="B13" s="14"/>
       <c r="C13" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J13" s="2"/>
-      <c r="K13" s="14"/>
+      <c r="K13" s="17"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4">
         <v>0.28168330097748401</v>
@@ -965,12 +1239,40 @@
       <c r="N13" s="10">
         <v>0.28191879114826501</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="15">
+      <c r="P13" s="12"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="W13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="X13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="17"/>
+      <c r="AA13" s="4"/>
+      <c r="AB13" s="4"/>
+      <c r="AC13" s="10"/>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A14" s="12">
         <v>5</v>
       </c>
-      <c r="B14" s="17"/>
+      <c r="B14" s="14"/>
       <c r="C14" s="8">
         <v>50</v>
       </c>
@@ -992,7 +1294,7 @@
       <c r="I14">
         <v>3</v>
       </c>
-      <c r="K14" s="13">
+      <c r="K14" s="16">
         <v>20</v>
       </c>
       <c r="L14" s="11">
@@ -1004,33 +1306,64 @@
       <c r="N14" s="11">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="15"/>
-      <c r="B15" s="17"/>
+      <c r="P14" s="12">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="8">
+        <v>50</v>
+      </c>
+      <c r="S14">
+        <v>100</v>
+      </c>
+      <c r="T14">
+        <v>150</v>
+      </c>
+      <c r="U14">
+        <v>200</v>
+      </c>
+      <c r="V14">
+        <v>150</v>
+      </c>
+      <c r="W14">
+        <v>100</v>
+      </c>
+      <c r="X14">
+        <v>3</v>
+      </c>
+      <c r="Z14" s="16">
+        <v>20</v>
+      </c>
+      <c r="AA14" s="11"/>
+      <c r="AB14" s="11"/>
+      <c r="AC14" s="11"/>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A15" s="12"/>
+      <c r="B15" s="14"/>
       <c r="C15" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J15" s="2"/>
-      <c r="K15" s="14"/>
+      <c r="K15" s="17"/>
       <c r="L15" s="4"/>
       <c r="M15" s="4">
         <v>0.28187245484509699</v>
@@ -1038,12 +1371,40 @@
       <c r="N15" s="10">
         <v>0.28142778352574699</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="15">
+      <c r="P15" s="12"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="S15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="T15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="U15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="V15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="W15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="X15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="17"/>
+      <c r="AA15" s="4"/>
+      <c r="AB15" s="4"/>
+      <c r="AC15" s="10"/>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A16" s="12">
         <v>6</v>
       </c>
-      <c r="B16" s="17"/>
+      <c r="B16" s="14"/>
       <c r="C16" s="8">
         <v>50</v>
       </c>
@@ -1068,7 +1429,7 @@
       <c r="J16">
         <v>3</v>
       </c>
-      <c r="K16" s="13">
+      <c r="K16" s="16">
         <v>20</v>
       </c>
       <c r="L16" s="11">
@@ -1080,35 +1441,69 @@
       <c r="N16" s="11">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" s="15"/>
-      <c r="B17" s="17"/>
+      <c r="P16" s="12">
+        <v>6</v>
+      </c>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="8">
+        <v>50</v>
+      </c>
+      <c r="S16">
+        <v>100</v>
+      </c>
+      <c r="T16">
+        <v>150</v>
+      </c>
+      <c r="U16">
+        <v>300</v>
+      </c>
+      <c r="V16">
+        <v>200</v>
+      </c>
+      <c r="W16">
+        <v>150</v>
+      </c>
+      <c r="X16">
+        <v>75</v>
+      </c>
+      <c r="Y16">
+        <v>3</v>
+      </c>
+      <c r="Z16" s="16">
+        <v>20</v>
+      </c>
+      <c r="AA16" s="11"/>
+      <c r="AB16" s="11"/>
+      <c r="AC16" s="11"/>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A17" s="12"/>
+      <c r="B17" s="14"/>
       <c r="C17" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K17" s="14"/>
+        <v>7</v>
+      </c>
+      <c r="K17" s="17"/>
       <c r="L17" s="4"/>
       <c r="M17" s="4">
         <v>0.25729176086785499</v>
@@ -1116,12 +1511,42 @@
       <c r="N17" s="10">
         <v>0.25699635345721</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="15">
-        <v>7</v>
-      </c>
-      <c r="B18" s="17"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="S17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="T17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="U17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="W17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="X17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z17" s="17"/>
+      <c r="AA17" s="4"/>
+      <c r="AB17" s="4"/>
+      <c r="AC17" s="10"/>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A18" s="12">
+        <v>7</v>
+      </c>
+      <c r="B18" s="14"/>
       <c r="C18" s="8">
         <v>50</v>
       </c>
@@ -1146,7 +1571,7 @@
       <c r="J18">
         <v>3</v>
       </c>
-      <c r="K18" s="13">
+      <c r="K18" s="16">
         <v>20</v>
       </c>
       <c r="L18" s="11">
@@ -1158,35 +1583,69 @@
       <c r="N18" s="11">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="15"/>
-      <c r="B19" s="17"/>
+      <c r="P18" s="12">
+        <v>7</v>
+      </c>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="8">
+        <v>50</v>
+      </c>
+      <c r="S18">
+        <v>100</v>
+      </c>
+      <c r="T18">
+        <v>150</v>
+      </c>
+      <c r="U18">
+        <v>300</v>
+      </c>
+      <c r="V18">
+        <v>200</v>
+      </c>
+      <c r="W18">
+        <v>150</v>
+      </c>
+      <c r="X18">
+        <v>75</v>
+      </c>
+      <c r="Y18">
+        <v>3</v>
+      </c>
+      <c r="Z18" s="16">
+        <v>20</v>
+      </c>
+      <c r="AA18" s="11"/>
+      <c r="AB18" s="11"/>
+      <c r="AC18" s="11"/>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A19" s="12"/>
+      <c r="B19" s="14"/>
       <c r="C19" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K19" s="14"/>
+        <v>7</v>
+      </c>
+      <c r="K19" s="17"/>
       <c r="L19" s="4"/>
       <c r="M19" s="4">
         <v>0.24415198523644199</v>
@@ -1194,12 +1653,42 @@
       <c r="N19" s="10">
         <v>0.24400142865336699</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="15">
+      <c r="P19" s="12"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="S19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="T19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="U19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="V19" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="W19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="X19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z19" s="17"/>
+      <c r="AA19" s="4"/>
+      <c r="AB19" s="4"/>
+      <c r="AC19" s="10"/>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A20" s="12">
         <v>8</v>
       </c>
-      <c r="B20" s="17"/>
+      <c r="B20" s="14"/>
       <c r="C20" s="8">
         <v>50</v>
       </c>
@@ -1224,7 +1713,7 @@
       <c r="J20">
         <v>3</v>
       </c>
-      <c r="K20" s="13">
+      <c r="K20" s="16">
         <v>20</v>
       </c>
       <c r="L20" s="11">
@@ -1236,35 +1725,69 @@
       <c r="N20" s="11">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="15"/>
-      <c r="B21" s="17"/>
+      <c r="P20" s="12">
+        <v>8</v>
+      </c>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="8">
+        <v>50</v>
+      </c>
+      <c r="S20">
+        <v>100</v>
+      </c>
+      <c r="T20">
+        <v>150</v>
+      </c>
+      <c r="U20">
+        <v>300</v>
+      </c>
+      <c r="V20">
+        <v>200</v>
+      </c>
+      <c r="W20">
+        <v>150</v>
+      </c>
+      <c r="X20">
+        <v>75</v>
+      </c>
+      <c r="Y20">
+        <v>3</v>
+      </c>
+      <c r="Z20" s="16">
+        <v>20</v>
+      </c>
+      <c r="AA20" s="11"/>
+      <c r="AB20" s="11"/>
+      <c r="AC20" s="11"/>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A21" s="12"/>
+      <c r="B21" s="14"/>
       <c r="C21" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K21" s="14"/>
+        <v>7</v>
+      </c>
+      <c r="K21" s="17"/>
       <c r="L21" s="4"/>
       <c r="M21" s="4">
         <v>0.24975433445966</v>
@@ -1272,10 +1795,40 @@
       <c r="N21" s="10">
         <v>0.24967077860547299</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P21" s="12"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="S21" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="T21" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="U21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="V21" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="W21" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="X21" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z21" s="17"/>
+      <c r="AA21" s="4"/>
+      <c r="AB21" s="4"/>
+      <c r="AC21" s="10"/>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
-      <c r="B22" s="17"/>
+      <c r="B22" s="14"/>
       <c r="C22" s="8">
         <v>50</v>
       </c>
@@ -1294,7 +1847,7 @@
       <c r="H22">
         <v>3</v>
       </c>
-      <c r="K22" s="13">
+      <c r="K22" s="16">
         <v>30</v>
       </c>
       <c r="L22" s="11">
@@ -1306,31 +1859,57 @@
       <c r="N22" s="11">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P22" s="1"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="8">
+        <v>50</v>
+      </c>
+      <c r="S22">
+        <v>100</v>
+      </c>
+      <c r="T22">
+        <v>150</v>
+      </c>
+      <c r="U22">
+        <v>150</v>
+      </c>
+      <c r="V22">
+        <v>100</v>
+      </c>
+      <c r="W22">
+        <v>3</v>
+      </c>
+      <c r="Z22" s="16">
+        <v>30</v>
+      </c>
+      <c r="AA22" s="11"/>
+      <c r="AB22" s="11"/>
+      <c r="AC22" s="11"/>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
-      <c r="B23" s="17"/>
+      <c r="B23" s="14"/>
       <c r="C23" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
-      <c r="K23" s="14"/>
+      <c r="K23" s="17"/>
       <c r="L23" s="4"/>
       <c r="M23" s="4">
         <v>0.24093191701004699</v>
@@ -1338,13 +1917,34 @@
       <c r="N23" s="10">
         <v>0.24111245735769701</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="P24" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P23" s="1"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="S23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="T23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="U23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="W23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="17"/>
+      <c r="AA23" s="4"/>
+      <c r="AB23" s="4"/>
+      <c r="AC23" s="10"/>
+    </row>
+    <row r="25" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
@@ -1357,10 +1957,22 @@
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="12" t="s">
-        <v>11</v>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="3"/>
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="3"/>
+      <c r="AA25" s="3"/>
+      <c r="AB25" s="3"/>
+      <c r="AC25" s="3"/>
+    </row>
+    <row r="26" spans="1:29" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C26" s="8">
         <v>50</v>
@@ -1383,7 +1995,7 @@
       <c r="I26">
         <v>3</v>
       </c>
-      <c r="K26" s="13">
+      <c r="K26" s="16">
         <v>20</v>
       </c>
       <c r="L26" s="11">
@@ -1395,32 +2007,62 @@
       <c r="N26" s="11">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B27" s="12"/>
+      <c r="Q26" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="R26" s="8">
+        <v>50</v>
+      </c>
+      <c r="S26">
+        <v>100</v>
+      </c>
+      <c r="T26">
+        <v>150</v>
+      </c>
+      <c r="U26">
+        <v>200</v>
+      </c>
+      <c r="V26">
+        <v>150</v>
+      </c>
+      <c r="W26">
+        <v>100</v>
+      </c>
+      <c r="X26">
+        <v>3</v>
+      </c>
+      <c r="Z26" s="16">
+        <v>20</v>
+      </c>
+      <c r="AA26" s="11"/>
+      <c r="AB26" s="11"/>
+      <c r="AC26" s="11"/>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B27" s="15"/>
       <c r="C27" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J27" s="2"/>
-      <c r="K27" s="14"/>
+      <c r="K27" s="17"/>
       <c r="L27" s="4"/>
       <c r="M27" s="4">
         <v>0.28189228155190399</v>
@@ -1428,29 +2070,76 @@
       <c r="N27" s="10">
         <v>0.28293915667179798</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B28" s="12"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B29" s="12"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B30" s="12"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B31" s="12"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B32" s="12"/>
+      <c r="Q27" s="15"/>
+      <c r="R27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="S27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="T27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="U27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="W27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="X27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y27" s="2"/>
+      <c r="Z27" s="17"/>
+      <c r="AA27" s="4"/>
+      <c r="AB27" s="4"/>
+      <c r="AC27" s="10"/>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B28" s="15"/>
+      <c r="Q28" s="15"/>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B29" s="15"/>
+      <c r="Q29" s="15"/>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B30" s="15"/>
+      <c r="Q30" s="15"/>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B31" s="15"/>
+      <c r="Q31" s="15"/>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B32" s="15"/>
+      <c r="Q32" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B6:B23"/>
+  <mergeCells count="40">
+    <mergeCell ref="Z20:Z21"/>
+    <mergeCell ref="Z22:Z23"/>
+    <mergeCell ref="Q26:Q32"/>
+    <mergeCell ref="Z26:Z27"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="Q6:Q23"/>
+    <mergeCell ref="Z6:Z7"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="Z8:Z9"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="Z10:Z11"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="Z12:Z13"/>
+    <mergeCell ref="P14:P15"/>
+    <mergeCell ref="Z14:Z15"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="Z16:Z17"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="Z18:Z19"/>
+    <mergeCell ref="P20:P21"/>
     <mergeCell ref="B26:B32"/>
     <mergeCell ref="K22:K23"/>
     <mergeCell ref="K26:K27"/>
@@ -1466,7 +2155,13 @@
     <mergeCell ref="K16:K17"/>
     <mergeCell ref="K18:K19"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B6:B23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/NeuralNetwork/SKLearn/Compare.xlsx
+++ b/NeuralNetwork/SKLearn/Compare.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ibvc1\Documents\_STEVEN\Uni\MinorProject\NeuralNetwork\SKLearn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{031A4844-53D6-45F8-B217-055250025F0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{882C2042-B77E-4773-AFA6-D1648B6825AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6AB32F16-D7CC-488A-92D7-8B96A981075A}"/>
+    <workbookView xWindow="-4545" yWindow="-18225" windowWidth="17280" windowHeight="8970" xr2:uid="{6AB32F16-D7CC-488A-92D7-8B96A981075A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -275,17 +275,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" textRotation="180"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -296,7 +288,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="180"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -613,8 +613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C708194A-08C4-4E44-AE6F-7BDE7A91FFF1}">
   <dimension ref="A2:AC32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="AA6" sqref="AA6:AC27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -636,10 +636,10 @@
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="19" t="s">
+      <c r="Q3" s="12" t="s">
         <v>13</v>
       </c>
     </row>
@@ -742,10 +742,10 @@
       <c r="AC5" s="3"/>
     </row>
     <row r="6" spans="1:29" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="12">
+      <c r="A6" s="13">
         <v>1</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="18" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="6">
@@ -768,7 +768,7 @@
       </c>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
-      <c r="K6" s="18">
+      <c r="K6" s="16">
         <v>20</v>
       </c>
       <c r="L6" s="11">
@@ -780,10 +780,10 @@
       <c r="N6" s="11">
         <v>2</v>
       </c>
-      <c r="P6" s="12">
+      <c r="P6" s="13">
         <v>1</v>
       </c>
-      <c r="Q6" s="13" t="s">
+      <c r="Q6" s="18" t="s">
         <v>9</v>
       </c>
       <c r="R6" s="6">
@@ -806,7 +806,7 @@
       </c>
       <c r="X6" s="9"/>
       <c r="Y6" s="9"/>
-      <c r="Z6" s="18">
+      <c r="Z6" s="16">
         <v>20</v>
       </c>
       <c r="AA6" s="11"/>
@@ -814,8 +814,8 @@
       <c r="AC6" s="11"/>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A7" s="12"/>
-      <c r="B7" s="14"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="19"/>
       <c r="C7" s="4" t="s">
         <v>2</v>
       </c>
@@ -836,7 +836,7 @@
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
-      <c r="K7" s="17"/>
+      <c r="K7" s="15"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4">
         <v>0.26102455877554998</v>
@@ -845,8 +845,8 @@
         <v>0.26131017390415501</v>
       </c>
       <c r="O7" s="8"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="14"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="19"/>
       <c r="R7" s="4" t="s">
         <v>2</v>
       </c>
@@ -867,16 +867,16 @@
       </c>
       <c r="X7" s="5"/>
       <c r="Y7" s="5"/>
-      <c r="Z7" s="17"/>
+      <c r="Z7" s="15"/>
       <c r="AA7" s="4"/>
       <c r="AB7" s="4"/>
       <c r="AC7" s="4"/>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A8" s="12">
-        <v>2</v>
-      </c>
-      <c r="B8" s="14"/>
+      <c r="A8" s="13">
+        <v>2</v>
+      </c>
+      <c r="B8" s="19"/>
       <c r="C8" s="8">
         <v>50</v>
       </c>
@@ -898,7 +898,7 @@
       <c r="I8">
         <v>3</v>
       </c>
-      <c r="K8" s="16">
+      <c r="K8" s="14">
         <v>20</v>
       </c>
       <c r="L8" s="11">
@@ -910,10 +910,10 @@
       <c r="N8" s="11">
         <v>3</v>
       </c>
-      <c r="P8" s="12">
-        <v>2</v>
-      </c>
-      <c r="Q8" s="14"/>
+      <c r="P8" s="13">
+        <v>2</v>
+      </c>
+      <c r="Q8" s="19"/>
       <c r="R8" s="8">
         <v>50</v>
       </c>
@@ -935,7 +935,7 @@
       <c r="X8">
         <v>3</v>
       </c>
-      <c r="Z8" s="16">
+      <c r="Z8" s="14">
         <v>100</v>
       </c>
       <c r="AA8" s="11"/>
@@ -943,8 +943,8 @@
       <c r="AC8" s="11"/>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A9" s="12"/>
-      <c r="B9" s="14"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="19"/>
       <c r="C9" s="4" t="s">
         <v>2</v>
       </c>
@@ -967,7 +967,7 @@
         <v>7</v>
       </c>
       <c r="J9" s="2"/>
-      <c r="K9" s="17"/>
+      <c r="K9" s="15"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4">
         <v>0.28187779840174698</v>
@@ -975,8 +975,8 @@
       <c r="N9" s="10">
         <v>0.28148663943548802</v>
       </c>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="14"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="19"/>
       <c r="R9" s="4" t="s">
         <v>2</v>
       </c>
@@ -999,16 +999,18 @@
         <v>7</v>
       </c>
       <c r="Y9" s="2"/>
-      <c r="Z9" s="17"/>
-      <c r="AA9" s="4"/>
+      <c r="Z9" s="15"/>
+      <c r="AA9" s="4">
+        <v>847.41094493865899</v>
+      </c>
       <c r="AB9" s="4"/>
       <c r="AC9" s="10"/>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A10" s="12">
-        <v>3</v>
-      </c>
-      <c r="B10" s="14"/>
+      <c r="A10" s="13">
+        <v>3</v>
+      </c>
+      <c r="B10" s="19"/>
       <c r="C10" s="8">
         <v>50</v>
       </c>
@@ -1030,7 +1032,7 @@
       <c r="I10">
         <v>3</v>
       </c>
-      <c r="K10" s="16">
+      <c r="K10" s="14">
         <v>20</v>
       </c>
       <c r="L10" s="11">
@@ -1042,10 +1044,10 @@
       <c r="N10" s="11">
         <v>3</v>
       </c>
-      <c r="P10" s="12">
-        <v>3</v>
-      </c>
-      <c r="Q10" s="14"/>
+      <c r="P10" s="13">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="19"/>
       <c r="R10" s="8">
         <v>50</v>
       </c>
@@ -1067,7 +1069,7 @@
       <c r="X10">
         <v>3</v>
       </c>
-      <c r="Z10" s="16">
+      <c r="Z10" s="14">
         <v>20</v>
       </c>
       <c r="AA10" s="11"/>
@@ -1075,8 +1077,8 @@
       <c r="AC10" s="11"/>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A11" s="12"/>
-      <c r="B11" s="14"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="19"/>
       <c r="C11" s="4" t="s">
         <v>2</v>
       </c>
@@ -1099,7 +1101,7 @@
         <v>7</v>
       </c>
       <c r="J11" s="2"/>
-      <c r="K11" s="17"/>
+      <c r="K11" s="15"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4">
         <v>0.24093191701004699</v>
@@ -1107,8 +1109,8 @@
       <c r="N11" s="10">
         <v>0.24111245735769701</v>
       </c>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="14"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="19"/>
       <c r="R11" s="4" t="s">
         <v>2</v>
       </c>
@@ -1131,16 +1133,16 @@
         <v>7</v>
       </c>
       <c r="Y11" s="2"/>
-      <c r="Z11" s="17"/>
+      <c r="Z11" s="15"/>
       <c r="AA11" s="4"/>
       <c r="AB11" s="4"/>
       <c r="AC11" s="10"/>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A12" s="12">
+      <c r="A12" s="13">
         <v>4</v>
       </c>
-      <c r="B12" s="14"/>
+      <c r="B12" s="19"/>
       <c r="C12" s="8">
         <v>50</v>
       </c>
@@ -1162,7 +1164,7 @@
       <c r="I12">
         <v>3</v>
       </c>
-      <c r="K12" s="16">
+      <c r="K12" s="14">
         <v>20</v>
       </c>
       <c r="L12" s="11">
@@ -1174,10 +1176,10 @@
       <c r="N12" s="11">
         <v>3</v>
       </c>
-      <c r="P12" s="12">
+      <c r="P12" s="13">
         <v>4</v>
       </c>
-      <c r="Q12" s="14"/>
+      <c r="Q12" s="19"/>
       <c r="R12" s="8">
         <v>50</v>
       </c>
@@ -1199,7 +1201,7 @@
       <c r="X12">
         <v>3</v>
       </c>
-      <c r="Z12" s="16">
+      <c r="Z12" s="14">
         <v>20</v>
       </c>
       <c r="AA12" s="11"/>
@@ -1207,8 +1209,8 @@
       <c r="AC12" s="11"/>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A13" s="12"/>
-      <c r="B13" s="14"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="19"/>
       <c r="C13" s="4" t="s">
         <v>2</v>
       </c>
@@ -1231,7 +1233,7 @@
         <v>7</v>
       </c>
       <c r="J13" s="2"/>
-      <c r="K13" s="17"/>
+      <c r="K13" s="15"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4">
         <v>0.28168330097748401</v>
@@ -1239,8 +1241,8 @@
       <c r="N13" s="10">
         <v>0.28191879114826501</v>
       </c>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="14"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="19"/>
       <c r="R13" s="4" t="s">
         <v>2</v>
       </c>
@@ -1263,16 +1265,16 @@
         <v>7</v>
       </c>
       <c r="Y13" s="2"/>
-      <c r="Z13" s="17"/>
+      <c r="Z13" s="15"/>
       <c r="AA13" s="4"/>
       <c r="AB13" s="4"/>
       <c r="AC13" s="10"/>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A14" s="12">
+      <c r="A14" s="13">
         <v>5</v>
       </c>
-      <c r="B14" s="14"/>
+      <c r="B14" s="19"/>
       <c r="C14" s="8">
         <v>50</v>
       </c>
@@ -1294,7 +1296,7 @@
       <c r="I14">
         <v>3</v>
       </c>
-      <c r="K14" s="16">
+      <c r="K14" s="14">
         <v>20</v>
       </c>
       <c r="L14" s="11">
@@ -1306,10 +1308,10 @@
       <c r="N14" s="11">
         <v>3</v>
       </c>
-      <c r="P14" s="12">
+      <c r="P14" s="13">
         <v>5</v>
       </c>
-      <c r="Q14" s="14"/>
+      <c r="Q14" s="19"/>
       <c r="R14" s="8">
         <v>50</v>
       </c>
@@ -1331,7 +1333,7 @@
       <c r="X14">
         <v>3</v>
       </c>
-      <c r="Z14" s="16">
+      <c r="Z14" s="14">
         <v>20</v>
       </c>
       <c r="AA14" s="11"/>
@@ -1339,8 +1341,8 @@
       <c r="AC14" s="11"/>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A15" s="12"/>
-      <c r="B15" s="14"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="19"/>
       <c r="C15" s="4" t="s">
         <v>2</v>
       </c>
@@ -1363,7 +1365,7 @@
         <v>7</v>
       </c>
       <c r="J15" s="2"/>
-      <c r="K15" s="17"/>
+      <c r="K15" s="15"/>
       <c r="L15" s="4"/>
       <c r="M15" s="4">
         <v>0.28187245484509699</v>
@@ -1371,8 +1373,8 @@
       <c r="N15" s="10">
         <v>0.28142778352574699</v>
       </c>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="14"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="19"/>
       <c r="R15" s="4" t="s">
         <v>2</v>
       </c>
@@ -1395,16 +1397,16 @@
         <v>7</v>
       </c>
       <c r="Y15" s="2"/>
-      <c r="Z15" s="17"/>
+      <c r="Z15" s="15"/>
       <c r="AA15" s="4"/>
       <c r="AB15" s="4"/>
       <c r="AC15" s="10"/>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A16" s="12">
+      <c r="A16" s="13">
         <v>6</v>
       </c>
-      <c r="B16" s="14"/>
+      <c r="B16" s="19"/>
       <c r="C16" s="8">
         <v>50</v>
       </c>
@@ -1429,7 +1431,7 @@
       <c r="J16">
         <v>3</v>
       </c>
-      <c r="K16" s="16">
+      <c r="K16" s="14">
         <v>20</v>
       </c>
       <c r="L16" s="11">
@@ -1441,10 +1443,10 @@
       <c r="N16" s="11">
         <v>3</v>
       </c>
-      <c r="P16" s="12">
+      <c r="P16" s="13">
         <v>6</v>
       </c>
-      <c r="Q16" s="14"/>
+      <c r="Q16" s="19"/>
       <c r="R16" s="8">
         <v>50</v>
       </c>
@@ -1469,7 +1471,7 @@
       <c r="Y16">
         <v>3</v>
       </c>
-      <c r="Z16" s="16">
+      <c r="Z16" s="14">
         <v>20</v>
       </c>
       <c r="AA16" s="11"/>
@@ -1477,8 +1479,8 @@
       <c r="AC16" s="11"/>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A17" s="12"/>
-      <c r="B17" s="14"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="19"/>
       <c r="C17" s="4" t="s">
         <v>2</v>
       </c>
@@ -1503,7 +1505,7 @@
       <c r="J17" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K17" s="17"/>
+      <c r="K17" s="15"/>
       <c r="L17" s="4"/>
       <c r="M17" s="4">
         <v>0.25729176086785499</v>
@@ -1511,8 +1513,8 @@
       <c r="N17" s="10">
         <v>0.25699635345721</v>
       </c>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="14"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="19"/>
       <c r="R17" s="4" t="s">
         <v>2</v>
       </c>
@@ -1537,16 +1539,16 @@
       <c r="Y17" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="Z17" s="17"/>
+      <c r="Z17" s="15"/>
       <c r="AA17" s="4"/>
       <c r="AB17" s="4"/>
       <c r="AC17" s="10"/>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A18" s="12">
-        <v>7</v>
-      </c>
-      <c r="B18" s="14"/>
+      <c r="A18" s="13">
+        <v>7</v>
+      </c>
+      <c r="B18" s="19"/>
       <c r="C18" s="8">
         <v>50</v>
       </c>
@@ -1571,7 +1573,7 @@
       <c r="J18">
         <v>3</v>
       </c>
-      <c r="K18" s="16">
+      <c r="K18" s="14">
         <v>20</v>
       </c>
       <c r="L18" s="11">
@@ -1583,10 +1585,10 @@
       <c r="N18" s="11">
         <v>3</v>
       </c>
-      <c r="P18" s="12">
-        <v>7</v>
-      </c>
-      <c r="Q18" s="14"/>
+      <c r="P18" s="13">
+        <v>7</v>
+      </c>
+      <c r="Q18" s="19"/>
       <c r="R18" s="8">
         <v>50</v>
       </c>
@@ -1611,7 +1613,7 @@
       <c r="Y18">
         <v>3</v>
       </c>
-      <c r="Z18" s="16">
+      <c r="Z18" s="14">
         <v>20</v>
       </c>
       <c r="AA18" s="11"/>
@@ -1619,8 +1621,8 @@
       <c r="AC18" s="11"/>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A19" s="12"/>
-      <c r="B19" s="14"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="19"/>
       <c r="C19" s="4" t="s">
         <v>2</v>
       </c>
@@ -1645,7 +1647,7 @@
       <c r="J19" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K19" s="17"/>
+      <c r="K19" s="15"/>
       <c r="L19" s="4"/>
       <c r="M19" s="4">
         <v>0.24415198523644199</v>
@@ -1653,8 +1655,8 @@
       <c r="N19" s="10">
         <v>0.24400142865336699</v>
       </c>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="14"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="19"/>
       <c r="R19" s="4" t="s">
         <v>2</v>
       </c>
@@ -1679,16 +1681,16 @@
       <c r="Y19" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="Z19" s="17"/>
+      <c r="Z19" s="15"/>
       <c r="AA19" s="4"/>
       <c r="AB19" s="4"/>
       <c r="AC19" s="10"/>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A20" s="12">
+      <c r="A20" s="13">
         <v>8</v>
       </c>
-      <c r="B20" s="14"/>
+      <c r="B20" s="19"/>
       <c r="C20" s="8">
         <v>50</v>
       </c>
@@ -1713,7 +1715,7 @@
       <c r="J20">
         <v>3</v>
       </c>
-      <c r="K20" s="16">
+      <c r="K20" s="14">
         <v>20</v>
       </c>
       <c r="L20" s="11">
@@ -1725,10 +1727,10 @@
       <c r="N20" s="11">
         <v>3</v>
       </c>
-      <c r="P20" s="12">
+      <c r="P20" s="13">
         <v>8</v>
       </c>
-      <c r="Q20" s="14"/>
+      <c r="Q20" s="19"/>
       <c r="R20" s="8">
         <v>50</v>
       </c>
@@ -1753,7 +1755,7 @@
       <c r="Y20">
         <v>3</v>
       </c>
-      <c r="Z20" s="16">
+      <c r="Z20" s="14">
         <v>20</v>
       </c>
       <c r="AA20" s="11"/>
@@ -1761,8 +1763,8 @@
       <c r="AC20" s="11"/>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A21" s="12"/>
-      <c r="B21" s="14"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="19"/>
       <c r="C21" s="4" t="s">
         <v>2</v>
       </c>
@@ -1787,7 +1789,7 @@
       <c r="J21" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K21" s="17"/>
+      <c r="K21" s="15"/>
       <c r="L21" s="4"/>
       <c r="M21" s="4">
         <v>0.24975433445966</v>
@@ -1795,8 +1797,8 @@
       <c r="N21" s="10">
         <v>0.24967077860547299</v>
       </c>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="14"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="19"/>
       <c r="R21" s="4" t="s">
         <v>2</v>
       </c>
@@ -1821,14 +1823,14 @@
       <c r="Y21" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="Z21" s="17"/>
+      <c r="Z21" s="15"/>
       <c r="AA21" s="4"/>
       <c r="AB21" s="4"/>
       <c r="AC21" s="10"/>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
-      <c r="B22" s="14"/>
+      <c r="B22" s="19"/>
       <c r="C22" s="8">
         <v>50</v>
       </c>
@@ -1847,7 +1849,7 @@
       <c r="H22">
         <v>3</v>
       </c>
-      <c r="K22" s="16">
+      <c r="K22" s="14">
         <v>30</v>
       </c>
       <c r="L22" s="11">
@@ -1860,7 +1862,7 @@
         <v>3</v>
       </c>
       <c r="P22" s="1"/>
-      <c r="Q22" s="14"/>
+      <c r="Q22" s="19"/>
       <c r="R22" s="8">
         <v>50</v>
       </c>
@@ -1879,7 +1881,7 @@
       <c r="W22">
         <v>3</v>
       </c>
-      <c r="Z22" s="16">
+      <c r="Z22" s="14">
         <v>30</v>
       </c>
       <c r="AA22" s="11"/>
@@ -1888,7 +1890,7 @@
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
-      <c r="B23" s="14"/>
+      <c r="B23" s="19"/>
       <c r="C23" s="4" t="s">
         <v>2</v>
       </c>
@@ -1909,7 +1911,7 @@
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
-      <c r="K23" s="17"/>
+      <c r="K23" s="15"/>
       <c r="L23" s="4"/>
       <c r="M23" s="4">
         <v>0.24093191701004699</v>
@@ -1918,7 +1920,7 @@
         <v>0.24111245735769701</v>
       </c>
       <c r="P23" s="1"/>
-      <c r="Q23" s="14"/>
+      <c r="Q23" s="19"/>
       <c r="R23" s="4" t="s">
         <v>2</v>
       </c>
@@ -1939,7 +1941,7 @@
       </c>
       <c r="X23" s="2"/>
       <c r="Y23" s="2"/>
-      <c r="Z23" s="17"/>
+      <c r="Z23" s="15"/>
       <c r="AA23" s="4"/>
       <c r="AB23" s="4"/>
       <c r="AC23" s="10"/>
@@ -1971,7 +1973,7 @@
       <c r="AC25" s="3"/>
     </row>
     <row r="26" spans="1:29" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="17" t="s">
         <v>10</v>
       </c>
       <c r="C26" s="8">
@@ -1995,7 +1997,7 @@
       <c r="I26">
         <v>3</v>
       </c>
-      <c r="K26" s="16">
+      <c r="K26" s="14">
         <v>20</v>
       </c>
       <c r="L26" s="11">
@@ -2007,7 +2009,7 @@
       <c r="N26" s="11">
         <v>2</v>
       </c>
-      <c r="Q26" s="15" t="s">
+      <c r="Q26" s="17" t="s">
         <v>10</v>
       </c>
       <c r="R26" s="8">
@@ -2031,7 +2033,7 @@
       <c r="X26">
         <v>3</v>
       </c>
-      <c r="Z26" s="16">
+      <c r="Z26" s="14">
         <v>20</v>
       </c>
       <c r="AA26" s="11"/>
@@ -2039,7 +2041,7 @@
       <c r="AC26" s="11"/>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="B27" s="15"/>
+      <c r="B27" s="17"/>
       <c r="C27" s="4" t="s">
         <v>2</v>
       </c>
@@ -2062,7 +2064,7 @@
         <v>7</v>
       </c>
       <c r="J27" s="2"/>
-      <c r="K27" s="17"/>
+      <c r="K27" s="15"/>
       <c r="L27" s="4"/>
       <c r="M27" s="4">
         <v>0.28189228155190399</v>
@@ -2070,7 +2072,7 @@
       <c r="N27" s="10">
         <v>0.28293915667179798</v>
       </c>
-      <c r="Q27" s="15"/>
+      <c r="Q27" s="17"/>
       <c r="R27" s="4" t="s">
         <v>2</v>
       </c>
@@ -2093,33 +2095,49 @@
         <v>7</v>
       </c>
       <c r="Y27" s="2"/>
-      <c r="Z27" s="17"/>
+      <c r="Z27" s="15"/>
       <c r="AA27" s="4"/>
       <c r="AB27" s="4"/>
       <c r="AC27" s="10"/>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="B28" s="15"/>
-      <c r="Q28" s="15"/>
+      <c r="B28" s="17"/>
+      <c r="Q28" s="17"/>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="B29" s="15"/>
-      <c r="Q29" s="15"/>
+      <c r="B29" s="17"/>
+      <c r="Q29" s="17"/>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="B30" s="15"/>
-      <c r="Q30" s="15"/>
+      <c r="B30" s="17"/>
+      <c r="Q30" s="17"/>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="B31" s="15"/>
-      <c r="Q31" s="15"/>
+      <c r="B31" s="17"/>
+      <c r="Q31" s="17"/>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="B32" s="15"/>
-      <c r="Q32" s="15"/>
+      <c r="B32" s="17"/>
+      <c r="Q32" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="P14:P15"/>
+    <mergeCell ref="Z14:Z15"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="Z8:Z9"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="Z10:Z11"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="Z12:Z13"/>
+    <mergeCell ref="Z16:Z17"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="Z18:Z19"/>
+    <mergeCell ref="P20:P21"/>
+    <mergeCell ref="B26:B32"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="B6:B23"/>
     <mergeCell ref="Z20:Z21"/>
     <mergeCell ref="Z22:Z23"/>
     <mergeCell ref="Q26:Q32"/>
@@ -2128,21 +2146,6 @@
     <mergeCell ref="Q6:Q23"/>
     <mergeCell ref="Z6:Z7"/>
     <mergeCell ref="P8:P9"/>
-    <mergeCell ref="Z8:Z9"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="Z10:Z11"/>
-    <mergeCell ref="P12:P13"/>
-    <mergeCell ref="Z12:Z13"/>
-    <mergeCell ref="P14:P15"/>
-    <mergeCell ref="Z14:Z15"/>
-    <mergeCell ref="P16:P17"/>
-    <mergeCell ref="Z16:Z17"/>
-    <mergeCell ref="P18:P19"/>
-    <mergeCell ref="Z18:Z19"/>
-    <mergeCell ref="P20:P21"/>
-    <mergeCell ref="B26:B32"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="K26:K27"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="K20:K21"/>
@@ -2159,7 +2162,6 @@
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B6:B23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
